--- a/biology/Zoologie/Brachycera/Brachycera.xlsx
+++ b/biology/Zoologie/Brachycera/Brachycera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brachycères, Brachycera, forment un sous-ordre d'insectes diptères qui comprend les mouches muscoïdes aux antennes courtes (du grec brachy signifiant "court" et ceros "corne"). Les antennes sont formées de trois articles ; le dernier article porte une longue soie, nommée arista, ou bien un style plurisegmenté.
 Deux groupes (non reconnus comme taxons) sont distingués, les brachycères orthorrhaphes (paraphylétique) et les brachycères cyclorrhaphes : 
@@ -514,15 +526,52 @@
           <t>Infra-ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinq taxons de rang infra-ordre sont reconnus :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cinq taxons de rang infra-ordre sont reconnus :
 Asilomorpha ;
 Muscomorpha ;
 Stratiomyomorpha Wood, 1990 ;
 Tabanomorpha ;
-Xylophagomorpha.
-Familles du sous-ordre des brachycères orthorrhaphes
+Xylophagomorpha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brachycera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachycera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Infra-ordres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Familles du sous-ordre des brachycères orthorrhaphes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acroceridae
 Apioceridae
 Asilidae
@@ -540,7 +589,43 @@
 Therevidae
 Xylomidae
 Xylophagidae
-Familles du sous-ordre des brachycères cyclorrhaphes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brachycera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachycera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Infra-ordres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Familles du sous-ordre des brachycères cyclorrhaphes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agromyzidae
 Anthomyiidae
 Anthomyzidae
@@ -611,31 +696,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Brachycera</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brachycera</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mimétisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines vraies mouches ressemblent à des hyménoptères comme les bourdons, à des guêpes et des frelons (et à d'autres insectes, comme à certains coléoptères ou lépidoptères). On estime que ce mimétisme leur permet d'intimider leurs ennemis potentiels en "bénéficiant" de la crainte inspirée par ces hyménoptères, sa portée exacte en termes d'évolution reste cependant discutée.
 Inversement, certains autres insectes ressemblent à des mouches.
